--- a/backend/public/excel/test.xlsx
+++ b/backend/public/excel/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lahcen Lamkirich\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lahcen Lamkirich\Desktop\Jci Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129ADBDB-F387-415A-8CEB-4F60498467FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E307C68A-9A2F-48AA-AAA6-1119BC39108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>elidrissi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>mohamed</t>
   </si>
@@ -42,33 +39,15 @@
     <t>lamkirich</t>
   </si>
   <si>
-    <t xml:space="preserve">elidrissi </t>
-  </si>
-  <si>
-    <t>rachid</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>adresse</t>
   </si>
   <si>
-    <t>elidr@gmail.com</t>
-  </si>
-  <si>
     <t>lamkirich@gmail.com</t>
   </si>
   <si>
-    <t>ibrahum@gmail.com</t>
-  </si>
-  <si>
-    <t>rachid@gmail.com</t>
-  </si>
-  <si>
-    <t>tadla</t>
-  </si>
-  <si>
     <t>agdz</t>
   </si>
   <si>
@@ -78,31 +57,22 @@
     <t>agadir</t>
   </si>
   <si>
-    <t>ELidrisSi</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>Neddam</t>
-  </si>
-  <si>
-    <t>nedam@gmail.com</t>
-  </si>
-  <si>
-    <t>Inezegane</t>
-  </si>
-  <si>
-    <t>Elbssita</t>
-  </si>
-  <si>
-    <t>Fouad</t>
+    <t>elbssita</t>
+  </si>
+  <si>
+    <t>fouad</t>
   </si>
   <si>
     <t>fouad@gmail.com</t>
   </si>
   <si>
-    <t>Howara</t>
+    <t>neddam</t>
+  </si>
+  <si>
+    <t>neddam@gmail.com</t>
+  </si>
+  <si>
+    <t>lahcen</t>
   </si>
   <si>
     <t>Ennouri</t>
@@ -111,13 +81,19 @@
     <t>Ahmed</t>
   </si>
   <si>
-    <t>Ahmed@gmail.com</t>
-  </si>
-  <si>
-    <t>Imi-tanout</t>
-  </si>
-  <si>
-    <t>lahcen</t>
+    <t>ahmed@gmail.com</t>
+  </si>
+  <si>
+    <t>fettan</t>
+  </si>
+  <si>
+    <t>walid</t>
+  </si>
+  <si>
+    <t>walid@gmail.com</t>
+  </si>
+  <si>
+    <t>Essaouira</t>
   </si>
 </sst>
 </file>
@@ -196,14 +172,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -501,114 +475,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,11 +563,9 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{924B7D53-1B41-4E36-AC5B-56F56810545A}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{74D3D87A-2591-4BAC-B778-D55FC043A8FF}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{21125E18-4E94-411D-9496-732C1BF72FF4}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{61164331-3CC0-43D5-997C-30BE54431610}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C58D09FD-9F92-496B-B5E8-8F16586F4265}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{1E017E67-A9E7-4710-953E-27AABED43B01}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D00392A6-702B-430C-96B7-14181E7915B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/backend/public/excel/test.xlsx
+++ b/backend/public/excel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lahcen Lamkirich\Desktop\Jci Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E307C68A-9A2F-48AA-AAA6-1119BC39108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C8BB0-ABD6-4893-9059-A71932F99AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>mohamed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>nom</t>
   </si>
@@ -45,9 +42,6 @@
     <t>adresse</t>
   </si>
   <si>
-    <t>lamkirich@gmail.com</t>
-  </si>
-  <si>
     <t>agdz</t>
   </si>
   <si>
@@ -57,24 +51,6 @@
     <t>agadir</t>
   </si>
   <si>
-    <t>elbssita</t>
-  </si>
-  <si>
-    <t>fouad</t>
-  </si>
-  <si>
-    <t>fouad@gmail.com</t>
-  </si>
-  <si>
-    <t>neddam</t>
-  </si>
-  <si>
-    <t>neddam@gmail.com</t>
-  </si>
-  <si>
-    <t>lahcen</t>
-  </si>
-  <si>
     <t>Ennouri</t>
   </si>
   <si>
@@ -84,16 +60,31 @@
     <t>ahmed@gmail.com</t>
   </si>
   <si>
-    <t>fettan</t>
-  </si>
-  <si>
-    <t>walid</t>
-  </si>
-  <si>
-    <t>walid@gmail.com</t>
-  </si>
-  <si>
-    <t>Essaouira</t>
+    <t>Khaldi@gmail.com</t>
+  </si>
+  <si>
+    <t>khaledi</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Simo@gmail.com</t>
+  </si>
+  <si>
+    <t>Hamdaoui</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Yassine</t>
+  </si>
+  <si>
+    <t>Hamdaoui@gmail.com</t>
+  </si>
+  <si>
+    <t>tanger</t>
   </si>
 </sst>
 </file>
@@ -462,7 +453,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -475,97 +466,88 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{F6503FF8-3ADB-4BDE-BDAF-93840ABD5E2C}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{924B7D53-1B41-4E36-AC5B-56F56810545A}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{74D3D87A-2591-4BAC-B778-D55FC043A8FF}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{21125E18-4E94-411D-9496-732C1BF72FF4}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{D00392A6-702B-430C-96B7-14181E7915B2}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{924B7D53-1B41-4E36-AC5B-56F56810545A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{74D3D87A-2591-4BAC-B778-D55FC043A8FF}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{21125E18-4E94-411D-9496-732C1BF72FF4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0B23C493-C2F1-4B1C-A304-2BA05FCF92D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/backend/public/excel/test.xlsx
+++ b/backend/public/excel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lahcen Lamkirich\Desktop\Jci Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C8BB0-ABD6-4893-9059-A71932F99AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB114A-42EA-4E49-8178-BEA82AD253F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nom</t>
   </si>
@@ -33,58 +33,22 @@
     <t>prenom</t>
   </si>
   <si>
-    <t>lamkirich</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>adresse</t>
   </si>
   <si>
-    <t>agdz</t>
-  </si>
-  <si>
-    <t>casa</t>
-  </si>
-  <si>
-    <t>agadir</t>
-  </si>
-  <si>
-    <t>Ennouri</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>ahmed@gmail.com</t>
-  </si>
-  <si>
-    <t>Khaldi@gmail.com</t>
-  </si>
-  <si>
-    <t>khaledi</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Simo@gmail.com</t>
-  </si>
-  <si>
-    <t>Hamdaoui</t>
-  </si>
-  <si>
-    <t>Khaled</t>
-  </si>
-  <si>
-    <t>Yassine</t>
-  </si>
-  <si>
-    <t>Hamdaoui@gmail.com</t>
-  </si>
-  <si>
-    <t>tanger</t>
+    <t>LAMKIRICH</t>
+  </si>
+  <si>
+    <t>LAHCEN</t>
+  </si>
+  <si>
+    <t>lahcen.lamkirich@gmail.com</t>
+  </si>
+  <si>
+    <t>Agdz</t>
   </si>
 </sst>
 </file>
@@ -163,12 +127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -472,82 +437,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{924B7D53-1B41-4E36-AC5B-56F56810545A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{74D3D87A-2591-4BAC-B778-D55FC043A8FF}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{21125E18-4E94-411D-9496-732C1BF72FF4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0B23C493-C2F1-4B1C-A304-2BA05FCF92D4}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{21125E18-4E94-411D-9496-732C1BF72FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>